--- a/module/2_clustering/cluster_tendency_facilities.xlsx
+++ b/module/2_clustering/cluster_tendency_facilities.xlsx
@@ -460,16 +460,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.211153259070202</v>
+        <v>0.2120060764068101</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2286064393743577</v>
+        <v>0.2289974696279077</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1029894562924609</v>
+        <v>0.1030516982192311</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1312489323351069</v>
+        <v>0.1316390735762633</v>
       </c>
     </row>
   </sheetData>
